--- a/autopts_report/report.xlsx
+++ b/autopts_report/report.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
-    <t>AutoPTS Report: 2021-07-16 15:38</t>
+    <t>AutoPTS Report: 2021-07-16 15:39</t>
   </si>
   <si>
     <t>Test Case</t>

--- a/autopts_report/report.xlsx
+++ b/autopts_report/report.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>AutoPTS Report: 2021-07-16 15:39</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+  <si>
+    <t>AutoPTS Report: 2021-07-16 15:46</t>
   </si>
   <si>
     <t>Test Case</t>
@@ -25,12 +25,102 @@
     <t>Result</t>
   </si>
   <si>
+    <t>DIS/SR/CR/BV-01-C</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Characteristic Read - Manufacturer Name String</t>
+  </si>
+  <si>
+    <t>DIS/SR/CR/BV-02-C</t>
+  </si>
+  <si>
+    <t>Characteristic Read - Model Number String</t>
+  </si>
+  <si>
+    <t>DIS/SR/CR/BV-03-C</t>
+  </si>
+  <si>
+    <t>Characteristic Read - Serial Number String</t>
+  </si>
+  <si>
+    <t>DIS/SR/CR/BV-04-C</t>
+  </si>
+  <si>
+    <t>Characteristic Read - Hardware Revision String</t>
+  </si>
+  <si>
+    <t>DIS/SR/CR/BV-05-C</t>
+  </si>
+  <si>
+    <t>Characteristic Read - Firmware Revision String</t>
+  </si>
+  <si>
+    <t>DIS/SR/CR/BV-06-C</t>
+  </si>
+  <si>
+    <t>Characteristic Read - Software Revision String</t>
+  </si>
+  <si>
+    <t>DIS/SR/CR/BV-09-C</t>
+  </si>
+  <si>
+    <t>Characteristic Read - PnP ID</t>
+  </si>
+  <si>
+    <t>DIS/SR/DEC/BV-01-C</t>
+  </si>
+  <si>
+    <t>Characteristic Declaration - Manufacturer Name String</t>
+  </si>
+  <si>
+    <t>DIS/SR/DEC/BV-02-C</t>
+  </si>
+  <si>
+    <t>Characteristic Declaration - Model Number String</t>
+  </si>
+  <si>
+    <t>DIS/SR/DEC/BV-03-C</t>
+  </si>
+  <si>
+    <t>Characteristic Declaration - Serial Number String</t>
+  </si>
+  <si>
+    <t>DIS/SR/DEC/BV-04-C</t>
+  </si>
+  <si>
+    <t>Characteristic Declaration - Hardware Revision String</t>
+  </si>
+  <si>
+    <t>DIS/SR/DEC/BV-05-C</t>
+  </si>
+  <si>
+    <t>Characteristic Declaration - Firmware Revision String</t>
+  </si>
+  <si>
+    <t>DIS/SR/DEC/BV-06-C</t>
+  </si>
+  <si>
+    <t>Characteristic Declaration - Software Revision String</t>
+  </si>
+  <si>
+    <t>DIS/SR/DEC/BV-09-C</t>
+  </si>
+  <si>
+    <t>Characteristic Declaration - PnP ID</t>
+  </si>
+  <si>
+    <t>DIS/SR/SD/BV-01-C</t>
+  </si>
+  <si>
+    <t>Service Definition</t>
+  </si>
+  <si>
     <t>GAP/CONN/ACEP/BV-01-C</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>Verify the IUT can perform the Auto Connection Establishment Procedure to connect to another device in the Directed Connectable Mode.</t>
   </si>
   <si>
@@ -40,7 +130,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>1</t>
+    <t>16</t>
   </si>
   <si>
     <t>PassRate</t>
@@ -149,7 +239,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -502,7 +592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -521,7 +611,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -538,23 +628,184 @@
         <v>4</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
       <c r="F7" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/autopts_report/report.xlsx
+++ b/autopts_report/report.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
-  <si>
-    <t>AutoPTS Report: 2021-07-16 15:46</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+  <si>
+    <t>AutoPTS Report: 2021-07-16 16:05</t>
   </si>
   <si>
     <t>Test Case</t>
@@ -25,102 +25,12 @@
     <t>Result</t>
   </si>
   <si>
-    <t>DIS/SR/CR/BV-01-C</t>
+    <t>GAP/CONN/ACEP/BV-01-C</t>
   </si>
   <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>Characteristic Read - Manufacturer Name String</t>
-  </si>
-  <si>
-    <t>DIS/SR/CR/BV-02-C</t>
-  </si>
-  <si>
-    <t>Characteristic Read - Model Number String</t>
-  </si>
-  <si>
-    <t>DIS/SR/CR/BV-03-C</t>
-  </si>
-  <si>
-    <t>Characteristic Read - Serial Number String</t>
-  </si>
-  <si>
-    <t>DIS/SR/CR/BV-04-C</t>
-  </si>
-  <si>
-    <t>Characteristic Read - Hardware Revision String</t>
-  </si>
-  <si>
-    <t>DIS/SR/CR/BV-05-C</t>
-  </si>
-  <si>
-    <t>Characteristic Read - Firmware Revision String</t>
-  </si>
-  <si>
-    <t>DIS/SR/CR/BV-06-C</t>
-  </si>
-  <si>
-    <t>Characteristic Read - Software Revision String</t>
-  </si>
-  <si>
-    <t>DIS/SR/CR/BV-09-C</t>
-  </si>
-  <si>
-    <t>Characteristic Read - PnP ID</t>
-  </si>
-  <si>
-    <t>DIS/SR/DEC/BV-01-C</t>
-  </si>
-  <si>
-    <t>Characteristic Declaration - Manufacturer Name String</t>
-  </si>
-  <si>
-    <t>DIS/SR/DEC/BV-02-C</t>
-  </si>
-  <si>
-    <t>Characteristic Declaration - Model Number String</t>
-  </si>
-  <si>
-    <t>DIS/SR/DEC/BV-03-C</t>
-  </si>
-  <si>
-    <t>Characteristic Declaration - Serial Number String</t>
-  </si>
-  <si>
-    <t>DIS/SR/DEC/BV-04-C</t>
-  </si>
-  <si>
-    <t>Characteristic Declaration - Hardware Revision String</t>
-  </si>
-  <si>
-    <t>DIS/SR/DEC/BV-05-C</t>
-  </si>
-  <si>
-    <t>Characteristic Declaration - Firmware Revision String</t>
-  </si>
-  <si>
-    <t>DIS/SR/DEC/BV-06-C</t>
-  </si>
-  <si>
-    <t>Characteristic Declaration - Software Revision String</t>
-  </si>
-  <si>
-    <t>DIS/SR/DEC/BV-09-C</t>
-  </si>
-  <si>
-    <t>Characteristic Declaration - PnP ID</t>
-  </si>
-  <si>
-    <t>DIS/SR/SD/BV-01-C</t>
-  </si>
-  <si>
-    <t>Service Definition</t>
-  </si>
-  <si>
-    <t>GAP/CONN/ACEP/BV-01-C</t>
-  </si>
-  <si>
     <t>Verify the IUT can perform the Auto Connection Establishment Procedure to connect to another device in the Directed Connectable Mode.</t>
   </si>
   <si>
@@ -130,7 +40,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>16</t>
+    <t>1</t>
   </si>
   <si>
     <t>PassRate</t>
@@ -239,7 +149,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -592,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -611,7 +521,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -628,184 +538,23 @@
         <v>4</v>
       </c>
       <c r="G4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/autopts_report/report.xlsx
+++ b/autopts_report/report.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
-    <t>AutoPTS Report: 2021-07-16 16:05</t>
+    <t>AutoPTS Report: 2021-07-16 16:37</t>
   </si>
   <si>
     <t>Test Case</t>

--- a/autopts_report/report.xlsx
+++ b/autopts_report/report.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
-    <t>AutoPTS Report: 2021-07-16 16:37</t>
+    <t>AutoPTS Report: 2021-07-16 16:40</t>
   </si>
   <si>
     <t>Test Case</t>

--- a/autopts_report/report.xlsx
+++ b/autopts_report/report.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
-    <t>AutoPTS Report: 2021-07-16 16:40</t>
+    <t>AutoPTS Report: 2021-07-16 17:00</t>
   </si>
   <si>
     <t>Test Case</t>

--- a/autopts_report/report.xlsx
+++ b/autopts_report/report.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
-    <t>AutoPTS Report: 2021-07-16 17:00</t>
+    <t>AutoPTS Report: 2021-07-16 17:03</t>
   </si>
   <si>
     <t>Test Case</t>

--- a/autopts_report/report.xlsx
+++ b/autopts_report/report.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
-    <t>AutoPTS Report: 2021-07-16 17:03</t>
+    <t>AutoPTS Report: 2021-07-16 17:05</t>
   </si>
   <si>
     <t>Test Case</t>

--- a/autopts_report/report.xlsx
+++ b/autopts_report/report.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
-    <t>AutoPTS Report: 2021-07-16 17:05</t>
+    <t>AutoPTS Report: 2021-07-16 17:07</t>
   </si>
   <si>
     <t>Test Case</t>
